--- a/出库/枕头的出库(更新4.18).xlsx
+++ b/出库/枕头的出库(更新4.18).xlsx
@@ -1009,7 +1009,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A108" sqref="A108"/>
+      <selection pane="bottomLeft" activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5079,10 +5079,10 @@
         <v>13</v>
       </c>
       <c r="C107" s="23">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="D107" s="23">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="E107" s="23">
         <v>56</v>
@@ -5097,13 +5097,13 @@
         <v>13</v>
       </c>
       <c r="I107" s="23">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J107" s="23">
         <v>87</v>
       </c>
       <c r="K107" s="23">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5115,11 +5115,11 @@
       </c>
       <c r="C108" s="21">
         <f>C106-C107</f>
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="D108" s="21">
         <f t="shared" ref="D108:J108" si="49">D106-D107</f>
-        <v>2521</v>
+        <v>2514</v>
       </c>
       <c r="E108" s="21">
         <f t="shared" si="49"/>
@@ -5139,7 +5139,7 @@
       </c>
       <c r="I108" s="21">
         <f t="shared" si="49"/>
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="J108" s="21">
         <f t="shared" si="49"/>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="K108" s="21">
         <f>K106-K107+1</f>
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/出库/枕头的出库(更新4.18).xlsx
+++ b/出库/枕头的出库(更新4.18).xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Uoolatex\出库\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" calcMode="autoNoTable"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -20,7 +25,7 @@
     <author>xbany</author>
   </authors>
   <commentList>
-    <comment ref="D16" authorId="0">
+    <comment ref="D16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -34,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K16" authorId="0">
+    <comment ref="K16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0">
+    <comment ref="D18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0">
+    <comment ref="G20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J20" authorId="0">
+    <comment ref="J20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0">
+    <comment ref="D22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0">
+    <comment ref="G22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J22" authorId="0">
+    <comment ref="J22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D24" authorId="0">
+    <comment ref="D24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D50" authorId="0">
+    <comment ref="D50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -157,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D70" authorId="0">
+    <comment ref="D70" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D93" authorId="0">
+    <comment ref="D93" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -183,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D96" authorId="0">
+    <comment ref="D96" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -196,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C97" authorId="0">
+    <comment ref="C97" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -210,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K108" authorId="1">
+    <comment ref="K108" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -439,7 +444,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -724,6 +729,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1004,12 +1017,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D122" sqref="D122"/>
+      <selection pane="bottomLeft" activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5079,7 +5092,7 @@
         <v>13</v>
       </c>
       <c r="C107" s="23">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D107" s="23">
         <v>225</v>
@@ -5115,7 +5128,7 @@
       </c>
       <c r="C108" s="21">
         <f>C106-C107</f>
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D108" s="21">
         <f t="shared" ref="D108:J108" si="49">D106-D107</f>
